--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -603,10 +603,10 @@
         <v>18.11</v>
       </c>
       <c r="D2">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E2">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F2">
         <v>18.02</v>
@@ -644,10 +644,10 @@
         <v>19.94</v>
       </c>
       <c r="D3">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E3">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F3">
         <v>19.8</v>
@@ -685,10 +685,10 @@
         <v>25.73</v>
       </c>
       <c r="D4">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E4">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F4">
         <v>25.83</v>
@@ -726,10 +726,10 @@
         <v>24.79</v>
       </c>
       <c r="D5">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E5">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F5">
         <v>24.89</v>
@@ -767,10 +767,10 @@
         <v>19.21</v>
       </c>
       <c r="D6">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E6">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F6">
         <v>19.09</v>
@@ -808,10 +808,10 @@
         <v>27.8</v>
       </c>
       <c r="D7">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E7">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F7">
         <v>27.55</v>
@@ -849,7 +849,7 @@
         <v>32.16</v>
       </c>
       <c r="D8">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E8">
         <v>0.08</v>
@@ -1183,7 +1183,7 @@
         <v>0.02</v>
       </c>
       <c r="F16">
-        <v>3.478999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="G16">
         <v>0.08</v>
@@ -1224,7 +1224,7 @@
         <v>0.05</v>
       </c>
       <c r="F17">
-        <v>3.478999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="G17">
         <v>-0.07000000000000001</v>
@@ -1262,7 +1262,7 @@
         <v>11.61</v>
       </c>
       <c r="E18">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F18">
         <v>0.06</v>
@@ -1306,7 +1306,7 @@
         <v>0.04</v>
       </c>
       <c r="F19">
-        <v>3.478999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="G19">
         <v>0.05</v>
@@ -1347,7 +1347,7 @@
         <v>0.01</v>
       </c>
       <c r="F20">
-        <v>3.478999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="G20">
         <v>0.05</v>
@@ -1417,13 +1417,13 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>14.37102564102564</v>
+        <v>14.37</v>
       </c>
       <c r="C22">
         <v>4.99</v>
       </c>
       <c r="D22">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E22">
         <v>0.01</v>
@@ -1458,16 +1458,16 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>14.37102564102564</v>
+        <v>14.37</v>
       </c>
       <c r="C23">
         <v>5.05</v>
       </c>
       <c r="D23">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E23">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F23">
         <v>0.35</v>
@@ -1505,13 +1505,13 @@
         <v>0.36</v>
       </c>
       <c r="D24">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E24">
         <v>0.01</v>
       </c>
       <c r="F24">
-        <v>3.478999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="G24">
         <v>0.01</v>
@@ -1628,7 +1628,7 @@
         <v>0.03</v>
       </c>
       <c r="D27">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E27">
         <v>0.02</v>
@@ -1710,22 +1710,22 @@
         <v>0.04</v>
       </c>
       <c r="D29">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E29">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F29">
         <v>0.04</v>
       </c>
       <c r="G29">
-        <v>0.2420454545454545</v>
+        <v>0.24</v>
       </c>
       <c r="H29">
-        <v>0.1134090909090909</v>
+        <v>0.11</v>
       </c>
       <c r="I29">
-        <v>0.1129545454545454</v>
+        <v>0.11</v>
       </c>
       <c r="J29">
         <v>-1.46</v>
@@ -1745,16 +1745,16 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <v>14.37102564102564</v>
+        <v>14.37</v>
       </c>
       <c r="C30">
-        <v>13.93951219512195</v>
+        <v>13.94</v>
       </c>
       <c r="D30">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E30">
-        <v>0.01971428571428572</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
         <v>0.01</v>
@@ -1786,13 +1786,13 @@
         <v>42</v>
       </c>
       <c r="B31">
-        <v>14.37102564102564</v>
+        <v>14.37</v>
       </c>
       <c r="C31">
-        <v>13.93951219512195</v>
+        <v>13.94</v>
       </c>
       <c r="D31">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E31">
         <v>0.01</v>
@@ -1827,13 +1827,13 @@
         <v>43</v>
       </c>
       <c r="B32">
-        <v>14.37102564102564</v>
+        <v>14.37</v>
       </c>
       <c r="C32">
-        <v>13.93951219512195</v>
+        <v>13.94</v>
       </c>
       <c r="D32">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E32">
         <v>0.01</v>
@@ -1868,13 +1868,13 @@
         <v>44</v>
       </c>
       <c r="B33">
-        <v>14.37102564102564</v>
+        <v>14.37</v>
       </c>
       <c r="C33">
-        <v>13.93951219512195</v>
+        <v>13.94</v>
       </c>
       <c r="D33">
-        <v>13.48172413793104</v>
+        <v>13.48</v>
       </c>
       <c r="E33">
         <v>0.01</v>
